--- a/data-raw/wur/VertaaltabelBOFEKnaarSPU.xlsx
+++ b/data-raw/wur/VertaaltabelBOFEKnaarSPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GIS WATERSYSTEEM\A&amp;S\BOFEK2012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fa01722dbc575f3/Documenten/myR_on_GitHub/packages/hlptabel/data-raw/wur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2BA1A2F-6DB1-48E3-A502-BBBDB9E4FB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D2BA1A2F-6DB1-48E3-A502-BBBDB9E4FB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01706AA9-A249-4F50-BDFB-142C4E8E0700}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{85CC8D22-AA58-432E-8F49-B88EB9F93A49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85CC8D22-AA58-432E-8F49-B88EB9F93A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
